--- a/Issue 4A/HARLEQUIN 128 Issue 4A BOM.xlsx
+++ b/Issue 4A/HARLEQUIN 128 Issue 4A BOM.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Files\Retro Computer\zx spectrum\_clone\superfo\128K\Issue 4\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18470" windowHeight="17240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18465" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="HARLEQUIN 128 Issue 4" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,666 +21,678 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="242">
   <si>
+    <t>Superfo Harlequin 128 issue 4A</t>
+  </si>
+  <si>
     <t>Designator</t>
   </si>
   <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Digikey Part Number</t>
+  </si>
+  <si>
     <t>Quantity</t>
   </si>
   <si>
-    <t>Value</t>
+    <t>C1, C3, C27, C37, C38</t>
   </si>
   <si>
     <t>10uF</t>
   </si>
   <si>
+    <t>P19522CT-ND</t>
+  </si>
+  <si>
+    <t>C2, C4</t>
+  </si>
+  <si>
     <t>27pF</t>
   </si>
   <si>
-    <t>C2, C4</t>
+    <t>445-173185-1-ND</t>
+  </si>
+  <si>
+    <t>C6</t>
   </si>
   <si>
     <t>22uF</t>
   </si>
   <si>
-    <t>C6</t>
+    <t>P15791CT-ND</t>
+  </si>
+  <si>
+    <t>C7, C8, C9, C10, C11, C12, C13, C14, C15, C16, C17, C19, C20, C21, C22, C23, C24, C26, C31, C32, C34, C39</t>
   </si>
   <si>
     <t>0.1uF</t>
   </si>
   <si>
+    <t>BC1160CT-ND</t>
+  </si>
+  <si>
+    <t>C25, C40</t>
+  </si>
+  <si>
     <t>10pF</t>
   </si>
   <si>
-    <t>C25, C40</t>
+    <t>BC1001CT-ND</t>
+  </si>
+  <si>
+    <t>C28, C29</t>
   </si>
   <si>
     <t>220uF</t>
   </si>
   <si>
-    <t>C28, C29</t>
+    <t>1189-1546-1-ND</t>
+  </si>
+  <si>
+    <t>C35, C36</t>
   </si>
   <si>
     <t>3.3nF</t>
   </si>
   <si>
-    <t>C35, C36</t>
+    <t>BC1075CT-ND</t>
+  </si>
+  <si>
+    <t>C41, C42, C43, C44 (option for RS232)</t>
+  </si>
+  <si>
+    <t>399-1177-1-ND</t>
+  </si>
+  <si>
+    <t>D1, D2, D3, D4, D6, D7, D8, D9, D11, D12, D13, D14, D15, D16, D17, D18, D19, D20, D21, D22, D23, D24, D25, D26, D27, D28</t>
   </si>
   <si>
     <t>1N4148</t>
   </si>
   <si>
+    <t>1N4148FS-ND</t>
+  </si>
+  <si>
+    <t>D5 (option for RS232)</t>
+  </si>
+  <si>
     <t>1N4742A</t>
   </si>
   <si>
+    <t>1N4742AFSCT-ND</t>
+  </si>
+  <si>
     <t>DN1</t>
   </si>
   <si>
+    <t>J1</t>
+  </si>
+  <si>
     <t>RCPT 8</t>
   </si>
   <si>
-    <t>J1</t>
+    <t>5-520315-8-ND</t>
+  </si>
+  <si>
+    <t>J2</t>
   </si>
   <si>
     <t>RCPT 5</t>
   </si>
   <si>
-    <t>J2</t>
+    <t xml:space="preserve">A105063-ND </t>
+  </si>
+  <si>
+    <t>J1A, J2A, J12, J19, J20 (NOT USE)</t>
+  </si>
+  <si>
+    <t>J4</t>
   </si>
   <si>
     <t>DC JACK</t>
   </si>
   <si>
-    <t>J4</t>
+    <t>CP-002A-ND</t>
+  </si>
+  <si>
+    <t>J5, J6</t>
+  </si>
+  <si>
+    <t>AUDIO JACK</t>
+  </si>
+  <si>
+    <t>CP1-3525N-ND</t>
+  </si>
+  <si>
+    <t>J5A (option to has Video and Audio the same Jack)</t>
+  </si>
+  <si>
+    <t>PJ-322 (ebay)</t>
+  </si>
+  <si>
+    <t>J7 (NOT USE)</t>
   </si>
   <si>
     <t>Header 2X2</t>
   </si>
   <si>
+    <t>2553-2011-2X02G00SB-ND</t>
+  </si>
+  <si>
     <t>J8</t>
   </si>
   <si>
+    <t>Mini-DIN 9</t>
+  </si>
+  <si>
+    <t>CP-2290-ND</t>
+  </si>
+  <si>
+    <t>J9</t>
+  </si>
+  <si>
     <t>D Connector 9</t>
   </si>
   <si>
-    <t>J9</t>
-  </si>
-  <si>
-    <t>Header 4X2</t>
+    <t xml:space="preserve">AE10968-ND </t>
+  </si>
+  <si>
+    <t>J10, J11 (NOT USE)</t>
+  </si>
+  <si>
+    <t>J12  (option for ESP8266 Module)</t>
+  </si>
+  <si>
+    <t>ED10541-ND</t>
   </si>
   <si>
     <t>J15</t>
   </si>
   <si>
+    <t>Modular6P</t>
+  </si>
+  <si>
+    <t>553-2258-ND</t>
+  </si>
+  <si>
+    <t>J18</t>
+  </si>
+  <si>
+    <t>Header 3 MALE</t>
+  </si>
+  <si>
+    <t>Q1, Q2, Q3, Q4</t>
+  </si>
+  <si>
     <t>BC548</t>
   </si>
   <si>
-    <t>Q1, Q2, Q3, Q4</t>
+    <t>BC548BTACT-ND</t>
+  </si>
+  <si>
+    <t>R1, R2, R3, R4, R5, R6, R10, R11, R13, R14, R22, R37, R45, R62, R63, R64, R65</t>
   </si>
   <si>
     <t>10K</t>
   </si>
   <si>
+    <t>CF14JT10K0CT-ND</t>
+  </si>
+  <si>
+    <t>R7, R9, R12, R32, R47, R56, R57, R58, R59, R60, R61, R66, R67, R68, R69, R70, R71, R72, R73</t>
+  </si>
+  <si>
     <t>470</t>
   </si>
   <si>
-    <t>R7, R9, R12, R32, R47, R56, R57, R58, R59, R60, R61, R66, R67, R68, R69, R70, R71, R72, R73</t>
+    <t>CF14JT470RCT-ND</t>
+  </si>
+  <si>
+    <t>R8 (option for RS232)</t>
   </si>
   <si>
     <t>150</t>
   </si>
   <si>
+    <t>CF14JT150RCT-ND</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
     <t>1M</t>
   </si>
   <si>
-    <t>R15</t>
+    <t>CF14JT1M00CT-ND</t>
+  </si>
+  <si>
+    <t>R16, R35, R36, R50, R53, R54, R55</t>
   </si>
   <si>
     <t>1K</t>
   </si>
   <si>
-    <t>R16, R35, R36, R50, R53, R54, R55</t>
+    <t>CF14JT1K00CT-ND</t>
+  </si>
+  <si>
+    <t>R17</t>
   </si>
   <si>
     <t>4K7</t>
   </si>
   <si>
-    <t>R17</t>
+    <t>CF14JT4K70CT-ND</t>
+  </si>
+  <si>
+    <t>R18, R48</t>
   </si>
   <si>
     <t>270</t>
   </si>
   <si>
-    <t>R18, R48</t>
+    <t>CF14JT270RCT-ND</t>
+  </si>
+  <si>
+    <t>R19, R20, R21, R34, R38, R43</t>
   </si>
   <si>
     <t>68</t>
   </si>
   <si>
-    <t>R19, R20, R21, R34, R38, R43</t>
+    <t>CF14JT68R0CT-ND</t>
+  </si>
+  <si>
+    <t>R23, R26, R29</t>
   </si>
   <si>
     <t>18K</t>
   </si>
   <si>
-    <t>R23, R26, R29</t>
+    <t>CF14JT18K0CT-ND</t>
+  </si>
+  <si>
+    <t>R24, R27, R30</t>
   </si>
   <si>
     <t>3K9</t>
   </si>
   <si>
-    <t>R24, R27, R30</t>
+    <t>CF14JT3K90CT-ND</t>
+  </si>
+  <si>
+    <t>R25, R28, R31, R51, R52</t>
   </si>
   <si>
     <t>2K2</t>
   </si>
   <si>
+    <t>CF14JT2K20CT-ND</t>
+  </si>
+  <si>
+    <t>R33</t>
+  </si>
+  <si>
     <t>33K</t>
   </si>
   <si>
-    <t>R33</t>
+    <t>CF14JT33K0CT-ND</t>
+  </si>
+  <si>
+    <t>R39, R40, R41, R42</t>
   </si>
   <si>
     <t>75</t>
   </si>
   <si>
-    <t>R39, R40, R41, R42</t>
+    <t>CF14JT75R0CT-ND</t>
+  </si>
+  <si>
+    <t>R44, R46</t>
   </si>
   <si>
     <t>150K</t>
   </si>
   <si>
-    <t>R44, R46</t>
+    <t>CF14JT150KCT-ND</t>
+  </si>
+  <si>
+    <t>R49</t>
   </si>
   <si>
     <t>2K7</t>
   </si>
   <si>
-    <t>R49</t>
+    <t>CF14JT2K70CT-ND</t>
+  </si>
+  <si>
+    <t>R74</t>
   </si>
   <si>
     <t>560K</t>
   </si>
   <si>
-    <t>R74</t>
+    <t>CF14JT560KCT-ND</t>
+  </si>
+  <si>
+    <t>R75</t>
   </si>
   <si>
     <t>2K</t>
   </si>
   <si>
-    <t>R75</t>
+    <t>CF14JT2K00CT-ND</t>
+  </si>
+  <si>
+    <t>RN1, RN2, RN3</t>
+  </si>
+  <si>
+    <t>10K*8</t>
+  </si>
+  <si>
+    <t>4609X-101-103LF-ND</t>
   </si>
   <si>
     <t>SW1</t>
   </si>
   <si>
+    <t>TACTILE SWITCH</t>
+  </si>
+  <si>
+    <t>450-1661-ND</t>
+  </si>
+  <si>
     <t>SW2</t>
   </si>
   <si>
+    <t>DIP SWITCH 3 DIGIT</t>
+  </si>
+  <si>
+    <t>CT2103MS-ND</t>
+  </si>
+  <si>
+    <t>SW3 (OPTION)</t>
+  </si>
+  <si>
     <t>SW DPDT</t>
   </si>
   <si>
+    <t>EG1941-ND</t>
+  </si>
+  <si>
+    <t>SW4 (OPTION)</t>
+  </si>
+  <si>
     <t>SW 4PDT</t>
   </si>
   <si>
+    <t>563-1568-ND</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
     <t>Z80-CPU</t>
   </si>
   <si>
-    <t>U1</t>
+    <t>269-3892-ND</t>
+  </si>
+  <si>
+    <t>U2</t>
   </si>
   <si>
     <t>29F040/39SF040</t>
   </si>
   <si>
-    <t>U2</t>
+    <t>SST39SF040-70-4C-PHE-ND</t>
+  </si>
+  <si>
+    <t>U3</t>
   </si>
   <si>
     <t>UM61512</t>
   </si>
   <si>
-    <t>U3</t>
+    <t>EBAY</t>
+  </si>
+  <si>
+    <t>U4, U17, U18, U56</t>
   </si>
   <si>
     <t>74HC138</t>
   </si>
   <si>
-    <t>U4, U17, U18, U56</t>
+    <t>296-1575-5-ND</t>
+  </si>
+  <si>
+    <t>U5, U12, U21, U22, U28, U52, U60, U61</t>
   </si>
   <si>
     <t>74HC32</t>
   </si>
   <si>
-    <t>U5, U12, U21, U22, U28, U52, U60, U61</t>
+    <t>296-1589-5-ND</t>
   </si>
   <si>
     <t>U6</t>
   </si>
   <si>
+    <t>74HC541 or 74LS541</t>
+  </si>
+  <si>
+    <t>296-1594-5-ND or 296-1666-5-ND</t>
+  </si>
+  <si>
+    <t>U7, U50</t>
+  </si>
+  <si>
     <t>74HC174</t>
   </si>
   <si>
-    <t>U7, U50</t>
+    <t>296-1579-5-ND</t>
+  </si>
+  <si>
+    <t>U8</t>
   </si>
   <si>
     <t>HM628128</t>
   </si>
   <si>
-    <t>U8</t>
+    <t>1450-1017-ND</t>
+  </si>
+  <si>
+    <t>U9, U10, U19, U45</t>
   </si>
   <si>
     <t>74HC74</t>
   </si>
   <si>
-    <t>U9, U10, U19, U45</t>
+    <t>296-1602-5-ND</t>
+  </si>
+  <si>
+    <t>U11, U24, U26, U29, U53</t>
   </si>
   <si>
     <t>74HC08</t>
   </si>
   <si>
-    <t>U11, U24, U26, U29, U53</t>
+    <t xml:space="preserve">296-1570-5-ND </t>
+  </si>
+  <si>
+    <t>U13</t>
   </si>
   <si>
     <t>74HC04</t>
   </si>
   <si>
-    <t>U13</t>
+    <t>296-1566-5-ND</t>
+  </si>
+  <si>
+    <t>U14, U15, U16</t>
   </si>
   <si>
     <t>74HC161</t>
   </si>
   <si>
-    <t>U14, U15, U16</t>
+    <t>296-8244-5-ND</t>
+  </si>
+  <si>
+    <t>U20, U23, U27, U51</t>
   </si>
   <si>
     <t>74HC00</t>
   </si>
   <si>
-    <t>U20, U23, U27, U51</t>
+    <t>296-1563-5-ND</t>
+  </si>
+  <si>
+    <t>U25, U37, U38</t>
   </si>
   <si>
     <t>74HC4040</t>
   </si>
   <si>
-    <t>U25, U37, U38</t>
+    <t>296-8324-5-ND</t>
+  </si>
+  <si>
+    <t>U30</t>
   </si>
   <si>
     <t>74HC86</t>
   </si>
   <si>
-    <t>U30</t>
+    <t>296-8375-5-ND</t>
+  </si>
+  <si>
+    <t>U31, U41, U42, U55</t>
   </si>
   <si>
     <t>74HC257</t>
   </si>
   <si>
-    <t>U31, U41, U42, U55</t>
+    <t xml:space="preserve">296-8285-5-ND </t>
   </si>
   <si>
     <t>MAX3232CDR</t>
   </si>
   <si>
-    <t>U32</t>
+    <t>296-13094-1-ND</t>
+  </si>
+  <si>
+    <t>U33, U35, U36</t>
   </si>
   <si>
     <t>74HC574</t>
   </si>
   <si>
-    <t>U33, U35, U36</t>
+    <t>296-1598-5-ND</t>
+  </si>
+  <si>
+    <t>U34</t>
   </si>
   <si>
     <t>74HC166</t>
   </si>
   <si>
-    <t>U34</t>
+    <t xml:space="preserve">296-8255-5-ND </t>
+  </si>
+  <si>
+    <t>U40, U43, U44</t>
   </si>
   <si>
     <t>74HC245</t>
   </si>
   <si>
-    <t>U40, U43, U44</t>
+    <t>296-1584-5-ND</t>
   </si>
   <si>
     <t>U46</t>
   </si>
   <si>
+    <t>R-78E5.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">945-2201-ND </t>
+  </si>
+  <si>
+    <t>U48</t>
+  </si>
+  <si>
     <t>AD724JR</t>
   </si>
   <si>
-    <t>U48</t>
+    <t>AD724JRZ-RLTR-ND</t>
+  </si>
+  <si>
+    <t>U49</t>
   </si>
   <si>
     <t>LM311</t>
   </si>
   <si>
-    <t>U49</t>
+    <t>296-1389-5-ND</t>
+  </si>
+  <si>
+    <t>U54</t>
   </si>
   <si>
     <t>AY-3-8910</t>
   </si>
   <si>
-    <t>U54</t>
+    <t>U57</t>
   </si>
   <si>
     <t>74HC540</t>
   </si>
   <si>
-    <t>U57</t>
+    <t>296-8334-5-ND</t>
   </si>
   <si>
     <t>U58</t>
   </si>
   <si>
+    <t>74AC175 or 74ACT175</t>
+  </si>
+  <si>
+    <t>296-32986-5-ND</t>
+  </si>
+  <si>
+    <t>U59</t>
+  </si>
+  <si>
     <t>74HC11</t>
   </si>
   <si>
-    <t>U59</t>
+    <t>296-8217-5-ND</t>
+  </si>
+  <si>
+    <t>Y1</t>
   </si>
   <si>
     <t>28.375MHz</t>
   </si>
   <si>
-    <t>Y1</t>
+    <t>449-LFXTAL024588BULK (mouser.com)</t>
+  </si>
+  <si>
+    <t>Y2</t>
   </si>
   <si>
     <t>4.433MHz</t>
   </si>
   <si>
-    <t>Y2</t>
+    <t>1923-1420-ND</t>
+  </si>
+  <si>
+    <t>Y3 (OPTION)</t>
   </si>
   <si>
     <t>OSC 3.579MHz</t>
   </si>
   <si>
-    <t>P19522CT-ND</t>
-  </si>
-  <si>
-    <t>445-173185-1-ND</t>
-  </si>
-  <si>
-    <t>P15791CT-ND</t>
-  </si>
-  <si>
-    <t>BC1160CT-ND</t>
-  </si>
-  <si>
-    <t>C7, C8, C9, C10, C11, C12, C13, C14, C15, C16, C17, C19, C20, C21, C22, C23, C24, C26, C31, C32, C34, C39</t>
-  </si>
-  <si>
-    <t>BC1001CT-ND</t>
-  </si>
-  <si>
-    <t>1189-1546-1-ND</t>
-  </si>
-  <si>
-    <t>C41, C42, C43, C44 (option for RS232)</t>
-  </si>
-  <si>
-    <t>399-1177-1-ND</t>
-  </si>
-  <si>
-    <t>1N4148FS-ND</t>
-  </si>
-  <si>
-    <t>D5 (option for RS232)</t>
-  </si>
-  <si>
-    <t>1N4742AFSCT-ND</t>
-  </si>
-  <si>
-    <t>D1, D2, D3, D4, D6, D7, D8, D9, D11, D12, D13, D14, D15, D16, D17, D18, D19, D20, D21, D22, D23, D24, D25, D26, D27, D28</t>
-  </si>
-  <si>
-    <t>5-520315-8-ND</t>
-  </si>
-  <si>
-    <t>J1A, J2A, J12, J19, J20 (NOT USE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A105063-ND </t>
-  </si>
-  <si>
-    <t>CP-002A-ND</t>
-  </si>
-  <si>
-    <t>J5, J6</t>
-  </si>
-  <si>
-    <t>AUDIO JACK</t>
-  </si>
-  <si>
-    <t>CP1-3525N-ND</t>
-  </si>
-  <si>
-    <t>PJ-322 (ebay)</t>
-  </si>
-  <si>
-    <t>J5A (option to has Video and Audio the same Jack)</t>
-  </si>
-  <si>
-    <t>Mini-DIN 9</t>
-  </si>
-  <si>
-    <t>CP-2290-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AE10968-ND </t>
-  </si>
-  <si>
-    <t>ED10541-ND</t>
-  </si>
-  <si>
-    <t>Modular6P</t>
-  </si>
-  <si>
-    <t>553-2258-ND</t>
-  </si>
-  <si>
-    <t>Header 3 MALE</t>
-  </si>
-  <si>
-    <t>R8 (option for RS232)</t>
-  </si>
-  <si>
-    <t>CF14JT150RCT-ND</t>
-  </si>
-  <si>
-    <t>CF14JT10K0CT-ND</t>
-  </si>
-  <si>
-    <t>CF14JT470RCT-ND</t>
-  </si>
-  <si>
-    <t>CF14JT270RCT-ND</t>
-  </si>
-  <si>
-    <t>CF14JT1M00CT-ND</t>
-  </si>
-  <si>
-    <t>CF14JT1K00CT-ND</t>
-  </si>
-  <si>
-    <t>CF14JT4K70CT-ND</t>
-  </si>
-  <si>
-    <t>CF14JT68R0CT-ND</t>
-  </si>
-  <si>
-    <t>CF14JT18K0CT-ND</t>
-  </si>
-  <si>
-    <t>CF14JT3K90CT-ND</t>
-  </si>
-  <si>
-    <t>CF14JT2K20CT-ND</t>
-  </si>
-  <si>
-    <t>R25, R28, R31, R51, R52</t>
-  </si>
-  <si>
-    <t>CF14JT33K0CT-ND</t>
-  </si>
-  <si>
-    <t>CF14JT75R0CT-ND</t>
-  </si>
-  <si>
-    <t>CF14JT150KCT-ND</t>
-  </si>
-  <si>
-    <t>CF14JT2K70CT-ND</t>
-  </si>
-  <si>
-    <t>CF14JT560KCT-ND</t>
-  </si>
-  <si>
-    <t>CF14JT2K00CT-ND</t>
-  </si>
-  <si>
-    <t>4609X-101-103LF-ND</t>
-  </si>
-  <si>
-    <t>TACTILE SWITCH</t>
-  </si>
-  <si>
-    <t>450-1661-ND</t>
-  </si>
-  <si>
-    <t>DIP SWITCH 3 DIGIT</t>
-  </si>
-  <si>
-    <t>CT2103MS-ND</t>
-  </si>
-  <si>
-    <t>SW3 (OPTION)</t>
-  </si>
-  <si>
-    <t>SW4 (OPTION)</t>
-  </si>
-  <si>
-    <t>EG1941-ND</t>
-  </si>
-  <si>
-    <t>563-1568-ND</t>
-  </si>
-  <si>
-    <t>269-3892-ND</t>
-  </si>
-  <si>
-    <t>SST39SF040-70-4C-PHE-ND</t>
-  </si>
-  <si>
-    <t>EBAY</t>
-  </si>
-  <si>
-    <t>296-1575-5-ND</t>
-  </si>
-  <si>
-    <t>296-1589-5-ND</t>
-  </si>
-  <si>
-    <t>296-1579-5-ND</t>
-  </si>
-  <si>
-    <t>1450-1017-ND</t>
-  </si>
-  <si>
-    <t>296-1602-5-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">296-1570-5-ND </t>
-  </si>
-  <si>
-    <t>296-1566-5-ND</t>
-  </si>
-  <si>
-    <t>296-8244-5-ND</t>
-  </si>
-  <si>
-    <t>296-1563-5-ND</t>
-  </si>
-  <si>
-    <t>296-8324-5-ND</t>
-  </si>
-  <si>
-    <t>296-8375-5-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">296-8285-5-ND </t>
-  </si>
-  <si>
-    <t>296-13094-1-ND</t>
-  </si>
-  <si>
-    <t>296-1598-5-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">296-8255-5-ND </t>
-  </si>
-  <si>
-    <t>296-1584-5-ND</t>
-  </si>
-  <si>
-    <t>R-78E5.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">945-2201-ND </t>
-  </si>
-  <si>
-    <t>AD724JRZ-RLTR-ND</t>
-  </si>
-  <si>
-    <t>296-1389-5-ND</t>
-  </si>
-  <si>
-    <t>74AC175 or 74ACT175</t>
-  </si>
-  <si>
-    <t>296-32986-5-ND</t>
-  </si>
-  <si>
-    <t>296-8334-5-ND</t>
-  </si>
-  <si>
-    <t>296-8217-5-ND</t>
-  </si>
-  <si>
-    <t>449-LFXTAL024588BULK (mouser.com)</t>
-  </si>
-  <si>
-    <t>1923-1420-ND</t>
-  </si>
-  <si>
     <t>SER1222-ND</t>
   </si>
   <si>
-    <t>Y3 (OPTION)</t>
-  </si>
-  <si>
-    <t>J10, J11 (NOT USE)</t>
-  </si>
-  <si>
-    <t>Digikey Part Number</t>
-  </si>
-  <si>
-    <t>Superfo Harlequin 128 issue 4A</t>
-  </si>
-  <si>
-    <t>RN1, RN2, RN3</t>
-  </si>
-  <si>
-    <t>R1, R2, R3, R4, R5, R6, R10, R11, R13, R14, R22, R37, R45, R62, R63, R64, R65</t>
-  </si>
-  <si>
-    <t>J7 (NOT USE)</t>
-  </si>
-  <si>
-    <t>74HC541 or 74LS541</t>
-  </si>
-  <si>
-    <t>296-1594-5-ND or 296-1666-5-ND</t>
-  </si>
-  <si>
-    <t>10K*8</t>
-  </si>
-  <si>
     <t>SOCKET 8 PIN</t>
   </si>
   <si>
@@ -704,6 +711,9 @@
     <t>AE9992-ND</t>
   </si>
   <si>
+    <t>17 (19)</t>
+  </si>
+  <si>
     <t>SOCKET 20 PIN</t>
   </si>
   <si>
@@ -728,28 +738,13 @@
     <t>ED3048-5-ND</t>
   </si>
   <si>
-    <t>17 (19)</t>
-  </si>
-  <si>
-    <t>C1, C3, C27, C37, C38</t>
-  </si>
-  <si>
-    <t>BC548BTACT-ND</t>
-  </si>
-  <si>
-    <t>2553-2011-2X02G00SB-ND</t>
-  </si>
-  <si>
-    <t>J12  (option for ESP8266 Module)</t>
-  </si>
-  <si>
-    <t>J18</t>
-  </si>
-  <si>
-    <t>2553-2112-1X03G00SB-ND</t>
-  </si>
-  <si>
-    <t>BC1075CT-ND</t>
+    <t>Header 4X2 FEMALE</t>
+  </si>
+  <si>
+    <t>732-5316-ND</t>
+  </si>
+  <si>
+    <t>U32 (OPTION)</t>
   </si>
 </sst>
 </file>
@@ -1302,7 +1297,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1315,353 +1310,353 @@
   </sheetPr>
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="91.7265625" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" customWidth="1"/>
-    <col min="3" max="3" width="33.54296875" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="91.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>212</v>
+        <v>3</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>235</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>123</v>
+        <v>7</v>
       </c>
       <c r="D3" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="D4" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="D5" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D6" s="19">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="D7" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="D8" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>241</v>
+        <v>25</v>
       </c>
       <c r="D9" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="D10" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="D11" s="19">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="D12" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="D13" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="D14" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="D15" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="19"/>
     </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="D17" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="D18" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>143</v>
+        <v>49</v>
       </c>
       <c r="D19" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>216</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>237</v>
+        <v>52</v>
       </c>
       <c r="D20" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>146</v>
+        <v>55</v>
       </c>
       <c r="D21" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>147</v>
+        <v>58</v>
       </c>
       <c r="D22" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>211</v>
+        <v>59</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="19"/>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>238</v>
+        <v>60</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>239</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>148</v>
+        <v>61</v>
       </c>
       <c r="D24" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>149</v>
+        <v>63</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="D25" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>239</v>
+        <v>65</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>151</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s">
         <v>240</v>
@@ -1670,827 +1665,827 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>236</v>
+        <v>69</v>
       </c>
       <c r="D27" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>215</v>
+        <v>70</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>154</v>
+        <v>72</v>
       </c>
       <c r="D28" s="19">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="D29" s="19">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="D30" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="D31" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="D32" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>159</v>
+        <v>87</v>
       </c>
       <c r="D33" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="D34" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>160</v>
+        <v>93</v>
       </c>
       <c r="D35" s="19">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>161</v>
+        <v>96</v>
       </c>
       <c r="D36" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="D37" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="D38" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="D39" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="D40" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="D41" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>168</v>
+        <v>114</v>
       </c>
       <c r="D42" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="D43" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="D44" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>214</v>
+        <v>121</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="D45" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="D46" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="D47" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="D48" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="D49" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>67</v>
+        <v>137</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="D50" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="D51" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="D52" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="D53" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="D54" s="19">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>217</v>
+        <v>152</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>218</v>
+        <v>153</v>
       </c>
       <c r="D55" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="D56" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="D57" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>82</v>
+        <v>161</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="D58" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="D59" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>87</v>
+        <v>166</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>86</v>
+        <v>167</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="D60" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="D61" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>91</v>
+        <v>172</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>90</v>
+        <v>173</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="D62" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>176</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D63" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>94</v>
+        <v>179</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="D64" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>97</v>
+        <v>181</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D65" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="A66" s="7" t="s">
-        <v>99</v>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>98</v>
+        <v>184</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D66" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>101</v>
+        <v>186</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D67" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>103</v>
+        <v>189</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>102</v>
+        <v>190</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D68" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>105</v>
+        <v>192</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>104</v>
+        <v>193</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D69" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>106</v>
+        <v>195</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D70" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C71" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D70" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="A71" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C71" s="5" t="s">
+      <c r="D71" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D71" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.4">
-      <c r="A72" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="B72" s="1" t="s">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D72" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>111</v>
+        <v>205</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="D73" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>114</v>
+        <v>206</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>113</v>
+        <v>207</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D74" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>115</v>
+        <v>209</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D75" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>117</v>
+        <v>212</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>116</v>
+        <v>213</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="D76" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>119</v>
+        <v>215</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>118</v>
+        <v>216</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="D77" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>121</v>
+        <v>218</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>120</v>
+        <v>219</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="D78" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>122</v>
+        <v>222</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="D79" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="20"/>
       <c r="B80" s="4" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D80" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="20"/>
       <c r="B81" s="12" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D81" s="11">
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="20"/>
       <c r="B82" s="12" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="20"/>
       <c r="B83" s="12" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D83" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="20"/>
       <c r="B84" s="12" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D84" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="20"/>
       <c r="B85" s="12" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D85" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="21"/>
       <c r="B86" s="13" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D86" s="15">
         <v>2</v>
@@ -2498,6 +2493,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
-  <pageSetup scale="59" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="60" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Issue 4A/HARLEQUIN 128 Issue 4A BOM.xlsx
+++ b/Issue 4A/HARLEQUIN 128 Issue 4A BOM.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Files\Retro Computer\zx spectrum\_clone\superfo\128K\Issue 4\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18465" windowHeight="16440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18470" windowHeight="17240"/>
   </bookViews>
   <sheets>
     <sheet name="HARLEQUIN 128 Issue 4" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,730 +26,731 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="242">
   <si>
+    <t>Designator</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>27pF</t>
+  </si>
+  <si>
+    <t>C2, C4</t>
+  </si>
+  <si>
+    <t>22uF</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>0.1uF</t>
+  </si>
+  <si>
+    <t>10pF</t>
+  </si>
+  <si>
+    <t>C25, C40</t>
+  </si>
+  <si>
+    <t>220uF</t>
+  </si>
+  <si>
+    <t>C28, C29</t>
+  </si>
+  <si>
+    <t>3.3nF</t>
+  </si>
+  <si>
+    <t>C35, C36</t>
+  </si>
+  <si>
+    <t>1N4148</t>
+  </si>
+  <si>
+    <t>1N4742A</t>
+  </si>
+  <si>
+    <t>DN1</t>
+  </si>
+  <si>
+    <t>RCPT 8</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>RCPT 5</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>DC JACK</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>Header 2X2</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>D Connector 9</t>
+  </si>
+  <si>
+    <t>J9</t>
+  </si>
+  <si>
+    <t>Header 4X2</t>
+  </si>
+  <si>
+    <t>J15</t>
+  </si>
+  <si>
+    <t>BC548</t>
+  </si>
+  <si>
+    <t>Q1, Q2, Q3, Q4</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>R7, R9, R12, R32, R47, R56, R57, R58, R59, R60, R61, R66, R67, R68, R69, R70, R71, R72, R73</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>R16, R35, R36, R50, R53, R54, R55</t>
+  </si>
+  <si>
+    <t>4K7</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>R18, R48</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>R19, R20, R21, R34, R38, R43</t>
+  </si>
+  <si>
+    <t>18K</t>
+  </si>
+  <si>
+    <t>R23, R26, R29</t>
+  </si>
+  <si>
+    <t>3K9</t>
+  </si>
+  <si>
+    <t>R24, R27, R30</t>
+  </si>
+  <si>
+    <t>2K2</t>
+  </si>
+  <si>
+    <t>33K</t>
+  </si>
+  <si>
+    <t>R33</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>R39, R40, R41, R42</t>
+  </si>
+  <si>
+    <t>150K</t>
+  </si>
+  <si>
+    <t>R44, R46</t>
+  </si>
+  <si>
+    <t>2K7</t>
+  </si>
+  <si>
+    <t>R49</t>
+  </si>
+  <si>
+    <t>560K</t>
+  </si>
+  <si>
+    <t>R74</t>
+  </si>
+  <si>
+    <t>2K</t>
+  </si>
+  <si>
+    <t>R75</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>SW2</t>
+  </si>
+  <si>
+    <t>SW DPDT</t>
+  </si>
+  <si>
+    <t>SW 4PDT</t>
+  </si>
+  <si>
+    <t>Z80-CPU</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>29F040/39SF040</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>UM61512</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>74HC138</t>
+  </si>
+  <si>
+    <t>U4, U17, U18, U56</t>
+  </si>
+  <si>
+    <t>74HC32</t>
+  </si>
+  <si>
+    <t>U5, U12, U21, U22, U28, U52, U60, U61</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>74HC174</t>
+  </si>
+  <si>
+    <t>U7, U50</t>
+  </si>
+  <si>
+    <t>HM628128</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>74HC74</t>
+  </si>
+  <si>
+    <t>U9, U10, U19, U45</t>
+  </si>
+  <si>
+    <t>74HC08</t>
+  </si>
+  <si>
+    <t>U11, U24, U26, U29, U53</t>
+  </si>
+  <si>
+    <t>74HC04</t>
+  </si>
+  <si>
+    <t>U13</t>
+  </si>
+  <si>
+    <t>74HC161</t>
+  </si>
+  <si>
+    <t>U14, U15, U16</t>
+  </si>
+  <si>
+    <t>74HC00</t>
+  </si>
+  <si>
+    <t>U20, U23, U27, U51</t>
+  </si>
+  <si>
+    <t>74HC4040</t>
+  </si>
+  <si>
+    <t>U25, U37, U38</t>
+  </si>
+  <si>
+    <t>74HC86</t>
+  </si>
+  <si>
+    <t>U30</t>
+  </si>
+  <si>
+    <t>74HC257</t>
+  </si>
+  <si>
+    <t>U31, U41, U42, U55</t>
+  </si>
+  <si>
+    <t>MAX3232CDR</t>
+  </si>
+  <si>
+    <t>U32</t>
+  </si>
+  <si>
+    <t>74HC574</t>
+  </si>
+  <si>
+    <t>U33, U35, U36</t>
+  </si>
+  <si>
+    <t>74HC166</t>
+  </si>
+  <si>
+    <t>U34</t>
+  </si>
+  <si>
+    <t>74HC245</t>
+  </si>
+  <si>
+    <t>U40, U43, U44</t>
+  </si>
+  <si>
+    <t>U46</t>
+  </si>
+  <si>
+    <t>AD724JR</t>
+  </si>
+  <si>
+    <t>U48</t>
+  </si>
+  <si>
+    <t>LM311</t>
+  </si>
+  <si>
+    <t>U49</t>
+  </si>
+  <si>
+    <t>AY-3-8910</t>
+  </si>
+  <si>
+    <t>U54</t>
+  </si>
+  <si>
+    <t>74HC540</t>
+  </si>
+  <si>
+    <t>U57</t>
+  </si>
+  <si>
+    <t>U58</t>
+  </si>
+  <si>
+    <t>74HC11</t>
+  </si>
+  <si>
+    <t>U59</t>
+  </si>
+  <si>
+    <t>28.375MHz</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>4.433MHz</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>OSC 3.579MHz</t>
+  </si>
+  <si>
+    <t>P19522CT-ND</t>
+  </si>
+  <si>
+    <t>445-173185-1-ND</t>
+  </si>
+  <si>
+    <t>P15791CT-ND</t>
+  </si>
+  <si>
+    <t>BC1160CT-ND</t>
+  </si>
+  <si>
+    <t>C7, C8, C9, C10, C11, C12, C13, C14, C15, C16, C17, C19, C20, C21, C22, C23, C24, C26, C31, C32, C34, C39</t>
+  </si>
+  <si>
+    <t>BC1001CT-ND</t>
+  </si>
+  <si>
+    <t>1189-1546-1-ND</t>
+  </si>
+  <si>
+    <t>C41, C42, C43, C44 (option for RS232)</t>
+  </si>
+  <si>
+    <t>399-1177-1-ND</t>
+  </si>
+  <si>
+    <t>1N4148FS-ND</t>
+  </si>
+  <si>
+    <t>D5 (option for RS232)</t>
+  </si>
+  <si>
+    <t>1N4742AFSCT-ND</t>
+  </si>
+  <si>
+    <t>D1, D2, D3, D4, D6, D7, D8, D9, D11, D12, D13, D14, D15, D16, D17, D18, D19, D20, D21, D22, D23, D24, D25, D26, D27, D28</t>
+  </si>
+  <si>
+    <t>5-520315-8-ND</t>
+  </si>
+  <si>
+    <t>J1A, J2A, J12, J19, J20 (NOT USE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A105063-ND </t>
+  </si>
+  <si>
+    <t>CP-002A-ND</t>
+  </si>
+  <si>
+    <t>J5, J6</t>
+  </si>
+  <si>
+    <t>AUDIO JACK</t>
+  </si>
+  <si>
+    <t>CP1-3525N-ND</t>
+  </si>
+  <si>
+    <t>PJ-322 (ebay)</t>
+  </si>
+  <si>
+    <t>J5A (option to has Video and Audio the same Jack)</t>
+  </si>
+  <si>
+    <t>Mini-DIN 9</t>
+  </si>
+  <si>
+    <t>CP-2290-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AE10968-ND </t>
+  </si>
+  <si>
+    <t>Modular6P</t>
+  </si>
+  <si>
+    <t>553-2258-ND</t>
+  </si>
+  <si>
+    <t>Header 3 MALE</t>
+  </si>
+  <si>
+    <t>R8 (option for RS232)</t>
+  </si>
+  <si>
+    <t>CF14JT150RCT-ND</t>
+  </si>
+  <si>
+    <t>CF14JT10K0CT-ND</t>
+  </si>
+  <si>
+    <t>CF14JT470RCT-ND</t>
+  </si>
+  <si>
+    <t>CF14JT270RCT-ND</t>
+  </si>
+  <si>
+    <t>CF14JT1M00CT-ND</t>
+  </si>
+  <si>
+    <t>CF14JT1K00CT-ND</t>
+  </si>
+  <si>
+    <t>CF14JT4K70CT-ND</t>
+  </si>
+  <si>
+    <t>CF14JT68R0CT-ND</t>
+  </si>
+  <si>
+    <t>CF14JT18K0CT-ND</t>
+  </si>
+  <si>
+    <t>CF14JT3K90CT-ND</t>
+  </si>
+  <si>
+    <t>CF14JT2K20CT-ND</t>
+  </si>
+  <si>
+    <t>R25, R28, R31, R51, R52</t>
+  </si>
+  <si>
+    <t>CF14JT33K0CT-ND</t>
+  </si>
+  <si>
+    <t>CF14JT75R0CT-ND</t>
+  </si>
+  <si>
+    <t>CF14JT150KCT-ND</t>
+  </si>
+  <si>
+    <t>CF14JT2K70CT-ND</t>
+  </si>
+  <si>
+    <t>CF14JT560KCT-ND</t>
+  </si>
+  <si>
+    <t>CF14JT2K00CT-ND</t>
+  </si>
+  <si>
+    <t>4609X-101-103LF-ND</t>
+  </si>
+  <si>
+    <t>TACTILE SWITCH</t>
+  </si>
+  <si>
+    <t>450-1661-ND</t>
+  </si>
+  <si>
+    <t>DIP SWITCH 3 DIGIT</t>
+  </si>
+  <si>
+    <t>CT2103MS-ND</t>
+  </si>
+  <si>
+    <t>SW3 (OPTION)</t>
+  </si>
+  <si>
+    <t>SW4 (OPTION)</t>
+  </si>
+  <si>
+    <t>EG1941-ND</t>
+  </si>
+  <si>
+    <t>563-1568-ND</t>
+  </si>
+  <si>
+    <t>269-3892-ND</t>
+  </si>
+  <si>
+    <t>SST39SF040-70-4C-PHE-ND</t>
+  </si>
+  <si>
+    <t>EBAY</t>
+  </si>
+  <si>
+    <t>296-1575-5-ND</t>
+  </si>
+  <si>
+    <t>296-1589-5-ND</t>
+  </si>
+  <si>
+    <t>296-1579-5-ND</t>
+  </si>
+  <si>
+    <t>1450-1017-ND</t>
+  </si>
+  <si>
+    <t>296-1602-5-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">296-1570-5-ND </t>
+  </si>
+  <si>
+    <t>296-1566-5-ND</t>
+  </si>
+  <si>
+    <t>296-8244-5-ND</t>
+  </si>
+  <si>
+    <t>296-1563-5-ND</t>
+  </si>
+  <si>
+    <t>296-8324-5-ND</t>
+  </si>
+  <si>
+    <t>296-8375-5-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">296-8285-5-ND </t>
+  </si>
+  <si>
+    <t>296-13094-1-ND</t>
+  </si>
+  <si>
+    <t>296-1598-5-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">296-8255-5-ND </t>
+  </si>
+  <si>
+    <t>296-1584-5-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">945-2201-ND </t>
+  </si>
+  <si>
+    <t>AD724JRZ-RLTR-ND</t>
+  </si>
+  <si>
+    <t>296-1389-5-ND</t>
+  </si>
+  <si>
+    <t>74AC175 or 74ACT175</t>
+  </si>
+  <si>
+    <t>296-32986-5-ND</t>
+  </si>
+  <si>
+    <t>296-8334-5-ND</t>
+  </si>
+  <si>
+    <t>296-8217-5-ND</t>
+  </si>
+  <si>
+    <t>449-LFXTAL024588BULK (mouser.com)</t>
+  </si>
+  <si>
+    <t>1923-1420-ND</t>
+  </si>
+  <si>
+    <t>SER1222-ND</t>
+  </si>
+  <si>
+    <t>Y3 (OPTION)</t>
+  </si>
+  <si>
+    <t>J10, J11 (NOT USE)</t>
+  </si>
+  <si>
+    <t>Digikey Part Number</t>
+  </si>
+  <si>
     <t>Superfo Harlequin 128 issue 4A</t>
   </si>
   <si>
-    <t>Designator</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Digikey Part Number</t>
-  </si>
-  <si>
-    <t>Quantity</t>
+    <t>RN1, RN2, RN3</t>
+  </si>
+  <si>
+    <t>R1, R2, R3, R4, R5, R6, R10, R11, R13, R14, R22, R37, R45, R62, R63, R64, R65</t>
+  </si>
+  <si>
+    <t>J7 (NOT USE)</t>
+  </si>
+  <si>
+    <t>74HC541 or 74LS541</t>
+  </si>
+  <si>
+    <t>296-1594-5-ND or 296-1666-5-ND</t>
+  </si>
+  <si>
+    <t>10K*8</t>
+  </si>
+  <si>
+    <t>SOCKET 8 PIN</t>
+  </si>
+  <si>
+    <t>AE9986-ND</t>
+  </si>
+  <si>
+    <t>SOCKET 14 PIN</t>
+  </si>
+  <si>
+    <t>AE9989-ND</t>
+  </si>
+  <si>
+    <t>SOCKET 16 PIN</t>
+  </si>
+  <si>
+    <t>AE9992-ND</t>
+  </si>
+  <si>
+    <t>SOCKET 20 PIN</t>
+  </si>
+  <si>
+    <t>AE9998-ND</t>
+  </si>
+  <si>
+    <t>SOCKET 32 PIN 0.6"</t>
+  </si>
+  <si>
+    <t>ED3053-5-ND</t>
+  </si>
+  <si>
+    <t>SOCKET 32 PIN 0.3"</t>
+  </si>
+  <si>
+    <t>or 2 of socket 16 pin</t>
+  </si>
+  <si>
+    <t>SOCKET 40 PIN</t>
+  </si>
+  <si>
+    <t>ED3048-5-ND</t>
+  </si>
+  <si>
+    <t>17 (19)</t>
   </si>
   <si>
     <t>C1, C3, C27, C37, C38</t>
   </si>
   <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>P19522CT-ND</t>
-  </si>
-  <si>
-    <t>C2, C4</t>
-  </si>
-  <si>
-    <t>27pF</t>
-  </si>
-  <si>
-    <t>445-173185-1-ND</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>22uF</t>
-  </si>
-  <si>
-    <t>P15791CT-ND</t>
-  </si>
-  <si>
-    <t>C7, C8, C9, C10, C11, C12, C13, C14, C15, C16, C17, C19, C20, C21, C22, C23, C24, C26, C31, C32, C34, C39</t>
-  </si>
-  <si>
-    <t>0.1uF</t>
-  </si>
-  <si>
-    <t>BC1160CT-ND</t>
-  </si>
-  <si>
-    <t>C25, C40</t>
-  </si>
-  <si>
-    <t>10pF</t>
-  </si>
-  <si>
-    <t>BC1001CT-ND</t>
-  </si>
-  <si>
-    <t>C28, C29</t>
-  </si>
-  <si>
-    <t>220uF</t>
-  </si>
-  <si>
-    <t>1189-1546-1-ND</t>
-  </si>
-  <si>
-    <t>C35, C36</t>
-  </si>
-  <si>
-    <t>3.3nF</t>
+    <t>BC548BTACT-ND</t>
+  </si>
+  <si>
+    <t>2553-2011-2X02G00SB-ND</t>
+  </si>
+  <si>
+    <t>J12  (option for ESP8266 Module)</t>
+  </si>
+  <si>
+    <t>J18</t>
+  </si>
+  <si>
+    <t>2553-2112-1X03G00SB-ND</t>
   </si>
   <si>
     <t>BC1075CT-ND</t>
   </si>
   <si>
-    <t>C41, C42, C43, C44 (option for RS232)</t>
-  </si>
-  <si>
-    <t>399-1177-1-ND</t>
-  </si>
-  <si>
-    <t>D1, D2, D3, D4, D6, D7, D8, D9, D11, D12, D13, D14, D15, D16, D17, D18, D19, D20, D21, D22, D23, D24, D25, D26, D27, D28</t>
-  </si>
-  <si>
-    <t>1N4148</t>
-  </si>
-  <si>
-    <t>1N4148FS-ND</t>
-  </si>
-  <si>
-    <t>D5 (option for RS232)</t>
-  </si>
-  <si>
-    <t>1N4742A</t>
-  </si>
-  <si>
-    <t>1N4742AFSCT-ND</t>
-  </si>
-  <si>
-    <t>DN1</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>RCPT 8</t>
-  </si>
-  <si>
-    <t>5-520315-8-ND</t>
-  </si>
-  <si>
-    <t>J2</t>
-  </si>
-  <si>
-    <t>RCPT 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A105063-ND </t>
-  </si>
-  <si>
-    <t>J1A, J2A, J12, J19, J20 (NOT USE)</t>
-  </si>
-  <si>
-    <t>J4</t>
-  </si>
-  <si>
-    <t>DC JACK</t>
-  </si>
-  <si>
-    <t>CP-002A-ND</t>
-  </si>
-  <si>
-    <t>J5, J6</t>
-  </si>
-  <si>
-    <t>AUDIO JACK</t>
-  </si>
-  <si>
-    <t>CP1-3525N-ND</t>
-  </si>
-  <si>
-    <t>J5A (option to has Video and Audio the same Jack)</t>
-  </si>
-  <si>
-    <t>PJ-322 (ebay)</t>
-  </si>
-  <si>
-    <t>J7 (NOT USE)</t>
-  </si>
-  <si>
-    <t>Header 2X2</t>
-  </si>
-  <si>
-    <t>2553-2011-2X02G00SB-ND</t>
-  </si>
-  <si>
-    <t>J8</t>
-  </si>
-  <si>
-    <t>Mini-DIN 9</t>
-  </si>
-  <si>
-    <t>CP-2290-ND</t>
-  </si>
-  <si>
-    <t>J9</t>
-  </si>
-  <si>
-    <t>D Connector 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AE10968-ND </t>
-  </si>
-  <si>
-    <t>J10, J11 (NOT USE)</t>
-  </si>
-  <si>
-    <t>J12  (option for ESP8266 Module)</t>
-  </si>
-  <si>
-    <t>ED10541-ND</t>
-  </si>
-  <si>
-    <t>J15</t>
-  </si>
-  <si>
-    <t>Modular6P</t>
-  </si>
-  <si>
-    <t>553-2258-ND</t>
-  </si>
-  <si>
-    <t>J18</t>
-  </si>
-  <si>
-    <t>Header 3 MALE</t>
-  </si>
-  <si>
-    <t>Q1, Q2, Q3, Q4</t>
-  </si>
-  <si>
-    <t>BC548</t>
-  </si>
-  <si>
-    <t>BC548BTACT-ND</t>
-  </si>
-  <si>
-    <t>R1, R2, R3, R4, R5, R6, R10, R11, R13, R14, R22, R37, R45, R62, R63, R64, R65</t>
-  </si>
-  <si>
-    <t>10K</t>
-  </si>
-  <si>
-    <t>CF14JT10K0CT-ND</t>
-  </si>
-  <si>
-    <t>R7, R9, R12, R32, R47, R56, R57, R58, R59, R60, R61, R66, R67, R68, R69, R70, R71, R72, R73</t>
-  </si>
-  <si>
-    <t>470</t>
-  </si>
-  <si>
-    <t>CF14JT470RCT-ND</t>
-  </si>
-  <si>
-    <t>R8 (option for RS232)</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>CF14JT150RCT-ND</t>
-  </si>
-  <si>
-    <t>R15</t>
-  </si>
-  <si>
-    <t>1M</t>
-  </si>
-  <si>
-    <t>CF14JT1M00CT-ND</t>
-  </si>
-  <si>
-    <t>R16, R35, R36, R50, R53, R54, R55</t>
-  </si>
-  <si>
-    <t>1K</t>
-  </si>
-  <si>
-    <t>CF14JT1K00CT-ND</t>
-  </si>
-  <si>
-    <t>R17</t>
-  </si>
-  <si>
-    <t>4K7</t>
-  </si>
-  <si>
-    <t>CF14JT4K70CT-ND</t>
-  </si>
-  <si>
-    <t>R18, R48</t>
-  </si>
-  <si>
-    <t>270</t>
-  </si>
-  <si>
-    <t>CF14JT270RCT-ND</t>
-  </si>
-  <si>
-    <t>R19, R20, R21, R34, R38, R43</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>CF14JT68R0CT-ND</t>
-  </si>
-  <si>
-    <t>R23, R26, R29</t>
-  </si>
-  <si>
-    <t>18K</t>
-  </si>
-  <si>
-    <t>CF14JT18K0CT-ND</t>
-  </si>
-  <si>
-    <t>R24, R27, R30</t>
-  </si>
-  <si>
-    <t>3K9</t>
-  </si>
-  <si>
-    <t>CF14JT3K90CT-ND</t>
-  </si>
-  <si>
-    <t>R25, R28, R31, R51, R52</t>
-  </si>
-  <si>
-    <t>2K2</t>
-  </si>
-  <si>
-    <t>CF14JT2K20CT-ND</t>
-  </si>
-  <si>
-    <t>R33</t>
-  </si>
-  <si>
-    <t>33K</t>
-  </si>
-  <si>
-    <t>CF14JT33K0CT-ND</t>
-  </si>
-  <si>
-    <t>R39, R40, R41, R42</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>CF14JT75R0CT-ND</t>
-  </si>
-  <si>
-    <t>R44, R46</t>
-  </si>
-  <si>
-    <t>150K</t>
-  </si>
-  <si>
-    <t>CF14JT150KCT-ND</t>
-  </si>
-  <si>
-    <t>R49</t>
-  </si>
-  <si>
-    <t>2K7</t>
-  </si>
-  <si>
-    <t>CF14JT2K70CT-ND</t>
-  </si>
-  <si>
-    <t>R74</t>
-  </si>
-  <si>
-    <t>560K</t>
-  </si>
-  <si>
-    <t>CF14JT560KCT-ND</t>
-  </si>
-  <si>
-    <t>R75</t>
-  </si>
-  <si>
-    <t>2K</t>
-  </si>
-  <si>
-    <t>CF14JT2K00CT-ND</t>
-  </si>
-  <si>
-    <t>RN1, RN2, RN3</t>
-  </si>
-  <si>
-    <t>10K*8</t>
-  </si>
-  <si>
-    <t>4609X-101-103LF-ND</t>
-  </si>
-  <si>
-    <t>SW1</t>
-  </si>
-  <si>
-    <t>TACTILE SWITCH</t>
-  </si>
-  <si>
-    <t>450-1661-ND</t>
-  </si>
-  <si>
-    <t>SW2</t>
-  </si>
-  <si>
-    <t>DIP SWITCH 3 DIGIT</t>
-  </si>
-  <si>
-    <t>CT2103MS-ND</t>
-  </si>
-  <si>
-    <t>SW3 (OPTION)</t>
-  </si>
-  <si>
-    <t>SW DPDT</t>
-  </si>
-  <si>
-    <t>EG1941-ND</t>
-  </si>
-  <si>
-    <t>SW4 (OPTION)</t>
-  </si>
-  <si>
-    <t>SW 4PDT</t>
-  </si>
-  <si>
-    <t>563-1568-ND</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>Z80-CPU</t>
-  </si>
-  <si>
-    <t>269-3892-ND</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>29F040/39SF040</t>
-  </si>
-  <si>
-    <t>SST39SF040-70-4C-PHE-ND</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>UM61512</t>
-  </si>
-  <si>
-    <t>EBAY</t>
-  </si>
-  <si>
-    <t>U4, U17, U18, U56</t>
-  </si>
-  <si>
-    <t>74HC138</t>
-  </si>
-  <si>
-    <t>296-1575-5-ND</t>
-  </si>
-  <si>
-    <t>U5, U12, U21, U22, U28, U52, U60, U61</t>
-  </si>
-  <si>
-    <t>74HC32</t>
-  </si>
-  <si>
-    <t>296-1589-5-ND</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>74HC541 or 74LS541</t>
-  </si>
-  <si>
-    <t>296-1594-5-ND or 296-1666-5-ND</t>
-  </si>
-  <si>
-    <t>U7, U50</t>
-  </si>
-  <si>
-    <t>74HC174</t>
-  </si>
-  <si>
-    <t>296-1579-5-ND</t>
-  </si>
-  <si>
-    <t>U8</t>
-  </si>
-  <si>
-    <t>HM628128</t>
-  </si>
-  <si>
-    <t>1450-1017-ND</t>
-  </si>
-  <si>
-    <t>U9, U10, U19, U45</t>
-  </si>
-  <si>
-    <t>74HC74</t>
-  </si>
-  <si>
-    <t>296-1602-5-ND</t>
-  </si>
-  <si>
-    <t>U11, U24, U26, U29, U53</t>
-  </si>
-  <si>
-    <t>74HC08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">296-1570-5-ND </t>
-  </si>
-  <si>
-    <t>U13</t>
-  </si>
-  <si>
-    <t>74HC04</t>
-  </si>
-  <si>
-    <t>296-1566-5-ND</t>
-  </si>
-  <si>
-    <t>U14, U15, U16</t>
-  </si>
-  <si>
-    <t>74HC161</t>
-  </si>
-  <si>
-    <t>296-8244-5-ND</t>
-  </si>
-  <si>
-    <t>U20, U23, U27, U51</t>
-  </si>
-  <si>
-    <t>74HC00</t>
-  </si>
-  <si>
-    <t>296-1563-5-ND</t>
-  </si>
-  <si>
-    <t>U25, U37, U38</t>
-  </si>
-  <si>
-    <t>74HC4040</t>
-  </si>
-  <si>
-    <t>296-8324-5-ND</t>
-  </si>
-  <si>
-    <t>U30</t>
-  </si>
-  <si>
-    <t>74HC86</t>
-  </si>
-  <si>
-    <t>296-8375-5-ND</t>
-  </si>
-  <si>
-    <t>U31, U41, U42, U55</t>
-  </si>
-  <si>
-    <t>74HC257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">296-8285-5-ND </t>
-  </si>
-  <si>
-    <t>MAX3232CDR</t>
-  </si>
-  <si>
-    <t>296-13094-1-ND</t>
-  </si>
-  <si>
-    <t>U33, U35, U36</t>
-  </si>
-  <si>
-    <t>74HC574</t>
-  </si>
-  <si>
-    <t>296-1598-5-ND</t>
-  </si>
-  <si>
-    <t>U34</t>
-  </si>
-  <si>
-    <t>74HC166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">296-8255-5-ND </t>
-  </si>
-  <si>
-    <t>U40, U43, U44</t>
-  </si>
-  <si>
-    <t>74HC245</t>
-  </si>
-  <si>
-    <t>296-1584-5-ND</t>
-  </si>
-  <si>
-    <t>U46</t>
-  </si>
-  <si>
-    <t>R-78E5.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">945-2201-ND </t>
-  </si>
-  <si>
-    <t>U48</t>
-  </si>
-  <si>
-    <t>AD724JR</t>
-  </si>
-  <si>
-    <t>AD724JRZ-RLTR-ND</t>
-  </si>
-  <si>
-    <t>U49</t>
-  </si>
-  <si>
-    <t>LM311</t>
-  </si>
-  <si>
-    <t>296-1389-5-ND</t>
-  </si>
-  <si>
-    <t>U54</t>
-  </si>
-  <si>
-    <t>AY-3-8910</t>
-  </si>
-  <si>
-    <t>U57</t>
-  </si>
-  <si>
-    <t>74HC540</t>
-  </si>
-  <si>
-    <t>296-8334-5-ND</t>
-  </si>
-  <si>
-    <t>U58</t>
-  </si>
-  <si>
-    <t>74AC175 or 74ACT175</t>
-  </si>
-  <si>
-    <t>296-32986-5-ND</t>
-  </si>
-  <si>
-    <t>U59</t>
-  </si>
-  <si>
-    <t>74HC11</t>
-  </si>
-  <si>
-    <t>296-8217-5-ND</t>
-  </si>
-  <si>
-    <t>Y1</t>
-  </si>
-  <si>
-    <t>28.375MHz</t>
-  </si>
-  <si>
-    <t>449-LFXTAL024588BULK (mouser.com)</t>
-  </si>
-  <si>
-    <t>Y2</t>
-  </si>
-  <si>
-    <t>4.433MHz</t>
-  </si>
-  <si>
-    <t>1923-1420-ND</t>
-  </si>
-  <si>
-    <t>Y3 (OPTION)</t>
-  </si>
-  <si>
-    <t>OSC 3.579MHz</t>
-  </si>
-  <si>
-    <t>SER1222-ND</t>
-  </si>
-  <si>
-    <t>SOCKET 8 PIN</t>
-  </si>
-  <si>
-    <t>AE9986-ND</t>
-  </si>
-  <si>
-    <t>SOCKET 14 PIN</t>
-  </si>
-  <si>
-    <t>AE9989-ND</t>
-  </si>
-  <si>
-    <t>SOCKET 16 PIN</t>
-  </si>
-  <si>
-    <t>AE9992-ND</t>
-  </si>
-  <si>
-    <t>17 (19)</t>
-  </si>
-  <si>
-    <t>SOCKET 20 PIN</t>
-  </si>
-  <si>
-    <t>AE9998-ND</t>
-  </si>
-  <si>
-    <t>SOCKET 32 PIN 0.6"</t>
-  </si>
-  <si>
-    <t>ED3053-5-ND</t>
-  </si>
-  <si>
-    <t>SOCKET 32 PIN 0.3"</t>
-  </si>
-  <si>
-    <t>or 2 of socket 16 pin</t>
-  </si>
-  <si>
-    <t>SOCKET 40 PIN</t>
-  </si>
-  <si>
-    <t>ED3048-5-ND</t>
-  </si>
-  <si>
-    <t>Header 4X2 FEMALE</t>
-  </si>
-  <si>
-    <t>732-5316-ND</t>
-  </si>
-  <si>
-    <t>U32 (OPTION)</t>
+    <t xml:space="preserve"> 
+S7072-ND</t>
+  </si>
+  <si>
+    <t>R-78E5.0-1.0</t>
   </si>
 </sst>
 </file>
@@ -982,7 +988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1025,6 +1031,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1297,7 +1304,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1310,1182 +1317,1182 @@
   </sheetPr>
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="91.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="91.7265625" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" customWidth="1"/>
+    <col min="3" max="3" width="33.54296875" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+      <c r="A2" s="16" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+      <c r="A3" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" s="22" t="s">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="D3" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="D4" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="D5" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="D6" s="19">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="D7" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="D8" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>25</v>
+        <v>239</v>
       </c>
       <c r="D9" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="D10" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="D11" s="19">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="D12" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="D13" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="D14" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="D15" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="19"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="D17" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="D18" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="D19" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>50</v>
+        <v>214</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>235</v>
       </c>
       <c r="D20" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>55</v>
+        <v>146</v>
       </c>
       <c r="D21" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c r="D22" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
-        <v>59</v>
+        <v>209</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="19"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
-        <v>60</v>
+        <v>236</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>61</v>
+        <v>28</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>240</v>
       </c>
       <c r="D24" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A25" s="7" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>64</v>
+        <v>148</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>149</v>
       </c>
       <c r="D25" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A26" s="23" t="s">
-        <v>65</v>
+        <v>237</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="C26" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D26" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A27" s="7" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>69</v>
+        <v>234</v>
       </c>
       <c r="D27" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A28" s="7" t="s">
-        <v>70</v>
+        <v>213</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="D28" s="19">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="D29" s="19">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A30" s="6" t="s">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="D30" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A31" s="7" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>81</v>
+        <v>156</v>
       </c>
       <c r="D31" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="D32" s="19">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A33" s="7" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="D33" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A34" s="7" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="D34" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A35" s="7" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="D35" s="19">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A36" s="7" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="D36" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A37" s="7" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="D37" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A38" s="7" t="s">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="D38" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A39" s="7" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="D39" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A40" s="7" t="s">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c r="D40" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A41" s="7" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="D41" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A42" s="7" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="D42" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A43" s="7" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="D43" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A44" s="7" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="D44" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A45" s="7" t="s">
-        <v>121</v>
+        <v>212</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>122</v>
+        <v>217</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="D45" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A46" s="7" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="D46" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A47" s="7" t="s">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="D47" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A48" s="6" t="s">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="D48" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A49" s="6" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>134</v>
+        <v>66</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="D49" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A50" s="7" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="D50" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A51" s="7" t="s">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="D51" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A52" s="7" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="D52" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A53" s="7" t="s">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="D53" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A54" s="7" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="D54" s="19">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A55" s="7" t="s">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>152</v>
+        <v>215</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>153</v>
+        <v>216</v>
       </c>
       <c r="D55" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A56" s="7" t="s">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="D56" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A57" s="7" t="s">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="D57" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A58" s="7" t="s">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>161</v>
+        <v>82</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="D58" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A59" s="7" t="s">
-        <v>163</v>
+        <v>85</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>164</v>
+        <v>84</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="D59" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A60" s="7" t="s">
-        <v>166</v>
+        <v>87</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>167</v>
+        <v>86</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="D60" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A61" s="7" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="D61" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A62" s="7" t="s">
-        <v>172</v>
+        <v>91</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>173</v>
+        <v>90</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="D62" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A63" s="7" t="s">
-        <v>175</v>
+        <v>93</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="D63" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A64" s="7" t="s">
-        <v>178</v>
+        <v>95</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>179</v>
+        <v>94</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="D64" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A65" s="7" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>182</v>
+        <v>96</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D65" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
-        <v>241</v>
+    <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+      <c r="A66" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>184</v>
+        <v>98</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="D66" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A67" s="7" t="s">
-        <v>186</v>
+        <v>101</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D67" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A68" s="7" t="s">
-        <v>189</v>
+        <v>103</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>190</v>
+        <v>102</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D68" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A69" s="7" t="s">
-        <v>192</v>
+        <v>105</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D69" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A70" s="7" t="s">
-        <v>195</v>
+        <v>106</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D70" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A71" s="7" t="s">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="D71" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+      <c r="A72" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D71" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
+      <c r="D72" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+      <c r="A73" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D73" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+      <c r="A74" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D74" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+      <c r="A75" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C75" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C72" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D72" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
+      <c r="D75" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+      <c r="A76" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C76" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="D76" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+      <c r="A77" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C73" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D73" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
+      <c r="D77" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+      <c r="A78" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="D78" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+      <c r="A79" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C79" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C74" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="D74" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="D75" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="D76" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D77" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="D78" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>223</v>
-      </c>
       <c r="D79" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="20"/>
       <c r="B80" s="4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D80" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="20"/>
       <c r="B81" s="12" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D81" s="11">
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="20"/>
       <c r="B82" s="12" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="20"/>
       <c r="B83" s="12" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D83" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="20"/>
       <c r="B84" s="12" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D84" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="20"/>
       <c r="B85" s="12" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D85" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="21"/>
       <c r="B86" s="13" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D86" s="15">
         <v>2</v>
@@ -2493,6 +2500,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
-  <pageSetup scale="60" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="59" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>